--- a/500all/speech_level/speeches_CHRG-114hhrg20029.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20029.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,27 +52,15 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Lukken</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lukken. Mr. Chairman, Ranking Member Scott, and Members of the Subcommittee, thank you for this opportunity to testify on the impact of margin and bank capital on the cleared derivatives markets.    I am President and CEO of FIA, a trade association for the futures, options, and centrally cleared derivatives markets. Both margin and bank capital play an important role in protecting the safety and soundness of the financial system. Since the financial crisis, their roles have been heightened with the G20 leaders' commitment to both enhance bank capital, and require the clearing, and thus, margining of standardized OTC products through regulated clearinghouses.    While capital and margin are both tools in protecting the financial system, it is important to distinguish the two, as each serves a specific function in meeting this important goal.    Bank capital is the amount of funds that a banking institution holds in reserve to support its banking activities. Required by national banking regulators under international standards set by the Basel Committee on Bank Supervision, bank capital serves as a stable financial cushion to absorb unexpected losses by banks. Margin, on the other hand, aims to protect the safety and soundness of the futures and cleared derivatives markets, rather than specific institutions. Customers that utilize the futures or cleared derivatives markets to hedge their risks are required to clear such transaction through a clearinghouse, and in order to do so, must post margin with a clearing member. The clearing member, in turn, manages this collection of margin from its customers, and guarantees the customers' transactions with a clearinghouse. The customers' margin is simply a performance bond that ensures customers make good on their transactions, which offsets the clearing member's exposure to the clearinghouse.    Many of the largest clearing members are also affiliated with prudentially regulated banks, and thus, are required to hold sufficient capital to ensure their firm, and thus, the system, is protected. As large financial institutions, these banks are subject to both CFTC regulation for their future commission merchant clearing business, as well as bank capital regulations under the oversight of the Federal Reserve, the FDIC, and the OCC. These U.S. bank regulators, consistent with standards set by the Basel Committee, are now implementing a new type of capital provision known as the leverage ratio. Part of the goal of the leverage ratio is to set a simple, non-risk-based floor for capital, including measuring the exposures arising from futures options and other derivatives transactions. Unfortunately, the leverage ratio fails to properly recognize that customer margin posted to a bank-affiliated clearing member offsets the bank's actual exposure to the clearinghouse.    The very nature of customer margin is to reduce the exposure of losses to the clearing member and the clearinghouse. In recent years, the CFTC, under your oversight, has made significant improvements to enhance customer margin to ensure it is always the first line of protection to offset losses during a default. If left unfixed, the leverage ratio will result in an inaccurate measurement of the actual economic exposure of the bank, and assign unwarranted capital charges on its clearing business. This will lead to higher costs for end-users and hedgers in our markets. Given these new capital constraints, bank clearing members are already beginning to limit the amount and types of clients that they accept to clear. We also believe the leverage ratio will lead to further consolidation among clearing members, resulting in fewer players supporting the safety and soundness of the clearinghouse.    In the U.S., clearing members have decreased from 94 clearing firms 10 years ago, to only 55 today. While there are several factors contributing to this consolidation, capital has been recently cited by several clearing member banks who have now exited the clearing business.    Perhaps the most concerning consequence for this Committee surrounds the leverage ratio's impact on a clearinghouse's ability to move or port client positions from a defaulting clearing member to another healthy clearing member during a crisis. If porting cannot be achieved due to capital constraints, clearinghouses will be forced to liquidate in a fire sale client positions during volatile market conditions, adding unnecessary stress to an unstable marketplace. After all, the ability of clearinghouses to move customer positions during the failure of Lehman Brothers in 2008 is one of the fundamental reasons that policymakers in the G20 determined to expand clearing to OTC products.    In closing, I would encourage the U.S. regulatory community to work together through the Basel process in determining how our margin and bank capital regulations can work in context. Without a fix, recent efforts by the G20 to increase the use of clearing may be in jeopardy, and customers in the futures and cleared swaps markets may face higher costs and less access to these risk management markets.    Thank you very much, and I look forward to your questions.</t>
   </si>
   <si>
-    <t>O'Malia</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Malia. Chairman Scott, Ranking Member Scott, and Members of the Subcommittee, thank you for the opportunity to testify here today.    I would like to thank the Committee for holding this timely hearing to discuss the ramifications of two major reforms; bank capital and liquidity rules, and the margin requirements for non-cleared trades. Both will have a massive and profound impact on the derivative end-users.    In my testimony, I would like to explain the findings ISDA has produced to determine the cost impact of the capital rules, and will emphasize the need for a comprehensive and cumulative impact assessment. I will also provide an update on the implementation of the margin rules, and the steps ISDA is taking to ensure these are implemented in a cost-effective manner.    Substantial progress has been made to ensure that the financial system is more robust. The implementation of Basel 2.5 and Basel III means banks now hold more and better quality capital than ever before. An additional capital surcharge is being implemented for systemically important banks, and a resolution framework is being put in place to wind down failed banks without taxpayer assistance. This is on top of the global derivatives market infrastructure reforms, including data reporting, trading, and clearing.    While many aspects of the new rules have been finalized, core aspects of the Basel reform agenda, such as the leverage ratio, net stable funding ratio, fundamental review of the trading book, are still evolving. As it stands, these reforms look to significantly increase costs for banks, and may negatively impact the liquidity of these markets and the ability of banks to lend and provide crucial hedging services to corporate pension funds and asset managers.    Recent ISDA analysis suggests that the compliance with just one of the rules, the NSFR, will require the banking industry to raise additional long-term funding. We are concerned that the cumulative impact of the different parts of the banking capital reform are still unknown, and it is our belief that regulators shoulder undertake a cumulative impact assessment, posthaste. Given the continuing concerns about economic growth and job creation, legislators, supervisors, and market participants need to understand the cumulative impacts of the regulatory changes before they are implemented.    When it comes to the health of the global economy, I think the old tailor's saying holds true: measure twice and cut once. At this moment, we are cutting our cloth in the dark. ISDA has been working hard to understand the impacts of the individual rules, and over the past year we have conducted eight impact studies. In each case, these studies have indicated sizeable increases in capital, on top of the increases that have already occurred as part of Basel III. We have also found the impact was not uniform across all banks, with certain businesses hit particularly hard. One good example is the leverage ratio and its effect on client clearing business. As it stands, the rule fails to recognize the risk-reducing impact of the initial margin posted by customers, and this has proved detrimental to the economics of client clearing, and is in direct conflict with the G20 objectives of central clearing.    Now let me turn to the final rules regarding the margin for non-cleared trades. As I noted earlier, these rules will have a significant cost impact on non-cleared products. According to the analysis published by the CFTC, the industry may have to set aside over $300 billion of initial margin to meet these requirements. ISDA has worked closely with the market at the global level to prepare for implementation, and I am proud to say that ISDA and its members have accomplished a great deal. First, we have established a standard initial margin model called ISDA SIMM, which all participants can use to calculate the initial margin requirements. This is nothing short of revolutionary for the over-the-counter market. Second, we have worked to draw up a revised margin documentation that is compliant with the collateral and segregation rules. Third, we have established a robust governance structure to allow for the necessary evolution of the model, and to provide regulators complete transparency into the model development process. Despite these efforts, challenges remain. The deadline for implementation of the initial margin requirements for the largest banks is September 2016. The variation margin, big bang, is set for March of 2017, which affects all market participants.    There are still a few important items that need to fall into place to ensure that the market can move forward confidently. First, regulators need to send a clear signal that the ISDA SIMM is fit for purpose, and banks can confidently begin to apply this model before the 2016 deadline. Second, regulators must finalize the cross-border rules, which will result in the recognition of comparable jurisdictions. To date, the CFTC cross-border margin rules have not been approved, and if it is not rectified as soon as possible, the hard work to unify the rules under the Basel Committee IOSCO at that level will be undermined. In addition, ISDA will not be able to complete the necessary documentation that will assist dealers in determining whether their clients fall within scope of the margin rules by the time the rules go final.    And I appreciate the Committee's interest in ensuring that the G20 reforms are implemented in a cost-effective manner, and this ensures that end-users have access to global capital markets and derivatives markets. You can be confident that ISDA will continue to work to develop the data on the capital rules to contribute to a safe but cost-effective capital structure, as well as facilitate the transition to a new margin regime that is fully transparent and effective.    I am happy to answer any of your questions. Thank you.</t>
   </si>
   <si>
-    <t>Deas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Deas. Good morning, Chairman Scott, Ranking Member Scott, and Members of the Subcommittee.    I am Tom Deas, testifying on behalf of the U.S. Chamber's Center for Capital Markets Competitiveness and the Coalition for Derivatives End-Users. I am also Chairman of the National Association of Corporate Treasurers.    The Chamber and the Coalition for Derivative End-Users, along with NACT, represent hundreds of companies across the country that employ derivatives to manage risk in our day-to-day business activities.    First, let me sincerely thank, both the Chairman, the Ranking Member, and the Members of this Committee for doing so much to protect derivative end-users from the burdens of unnecessary regulation. When it comes to main street businesses, the Members of this Committee have worked together to get things done. Last year, you led the charge in enacting both the end-user margin bill and the centralized treasury unit bill, directly benefitting the end-user community. We sincerely appreciate these efforts.    Congress did this because they recognized that end-users do not engage in the kind of risky, speculative derivatives activity that became evident during the financial crisis. End-users comprise less than ten percent of the derivatives markets, and we use derivatives to hedge the risks in our day-to-day business activity. We are offsetting risks, not creating new ones.    We support the Dodd-Frank Act's goal of increasing transparency in, and reducing systemic risks of, the derivatives markets. However, at this point, almost 6 years after passage of the Act, there are still areas where the continuing uncertainty compels end-users to appeal for legislative and regulatory relief. End-users are also seeing the cumulative impacts of the elaborate web of new rules and regulations, including those placed on our counterparties; that is, rules that require our counterparties to meet certain tests regarding capital, liquidity, and margin, are leading to significant realized and potential impacts on end-users. Despite being exempted from the capital and margin requirements, end-users still face the distinct possibility that our hedging activities will become too costly because of the new and higher capital requirements, margin and liquidity requirements, imposed on our counterparties.    For example, under the net stable funding ratio, long-term funding costs will discourage dealer involvement in derivatives, thereby reducing available counterparties and liquidity for end-users. We understand the banking regulators have proposed their net stable funding ratio rule this week, and we are in the process of reviewing it and its impacts on end-users.    Another example is the supplemental leverage ratio, which does not permit the clearing member to receive credit for the segregated initial margin posted by its end-user customers. The failure of the SLR to recognize the risk-reducing effect of segregated client collateral will likely lead to fewer banks willing to provide clearing services for customers, and will likely increase costs to end-users generally.    Differences in the credit valuation adjustment risk capital charge between the United States and other jurisdictions, such as Europe, also create competitive disadvantages. Europe provides an exemption that avoids the CVA charge being factored onto the pricing, and passed on to end-users, however, in the United States no such exemption exists, leading to the potential for large pricing differences when trading with U.S. compared to EU banks.    Many end-users engage in derivatives with both non-bank, as well as bank swap dealers, and we are concerned about the impact on liquidity of certain restrictions on models for non-bank swap dealers, which would not permit the use of internal models for computing market risks, and counterparty credit charges for capital purposes. This approach requires non-bank swap dealers to hold significantly more regulatory capital, which ultimately will force them potentially to exit the business, leaving end-users with fewer choices for access to risk mitigation tools.    To summarize, end-users are concerned about the apparent disparity between an exemption from clearing and margin requirements on the one hand, and the pass-through costs resulting from new capital and liquidity rules imposed on their counterparties. We also fear that cross-border regulatory uncertainty and conflict could put American companies at an economic disadvantage. Although these capital and liquidity rules do not create affirmative requirements directly on end-users, they, nevertheless, create real impacts and costs. The imposition of unnecessary burdens on end-users restricts job growth, decreases investment, and undermines our competitiveness around the globe, leading to material cumulative impacts on corporate end-users and our economy.    Thank you again for your attention to the needs of end-user companies.</t>
   </si>
   <si>
-    <t>Gellasch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gellasch. Chairman Scott, Ranking Member Scott, Chairman Conaway, and other Members of the Committee, thank you for inviting me here today.    The testimony I am going to give today represents my views, and not those of the trade association or others members.    And I agree with your remarks. I actually believe that we can have more resilient markets and still protect end-users. And I also want to start today by recognizing the obvious; that inadequate regulation of derivatives turned the mortgage crisis into a worldwide financial meltdown. And in response to that crisis, regulators around the world designed rules to make our markets more fair, more transparent, more stable, and less likely to cause the next financial crisis.    I think it is clear they have actually done that. But unlike some of my colleagues here today, I want to share with you that these important reforms are not actually having a profound negative impact on real end-users. And the elaborate web of rules, that my colleagues referenced a moment ago, don't actually apply to them, and in part because of your hard work, but in part because of smart choices also made by our regulators.    Today's topic focuses largely on margin and capital, and I think that is actually the most important part of the crisis. The largest firms, AIG and the banks, had hundreds of billions of dollars on their balance sheets, and yet they still were not able to weather the storm, in large part because they had inadequate margin from their counterparties, and they had inadequate capital to absorb the losses, so the taxpayers did.    And I want to explore for a moment exactly what margin and capital are. As Mr. Lukken said, margin is the first line of defense for a counterparty. It is an asset often extremely liquid in securities that are used to satisfy the obligation. And it has been a hallmark of our capital markets for decades around the world, and it is actually the only reason to promote liquidity in times of financial stress. Capital, by contrast, ensures that the firm has enough of its own, not borrowed, money to meet the foreseeable obligations; essentially, to stay solvent. If margin is the first line of defense for a counterparty in the time of a crisis, then capital and leverage limits are the last before the bailout.    Once the crisis hit, everyone realized that we needed more margin and capital in the system, and the G20 summits focused squarely on those issues. And that is actually what Dodd-Frank did as well. And now we are hearing from many of the largest banks and financial firms and their trade groups here, that the requirements on them will have, and I will again use their words, profound negative impacts, or impede the ability of end-users to manage their risks. And I am here to say I respectfully disagree, and the reason is, frankly, simple math. And let me use an example from real life that I am familiar with, and it is a real commercial end-user, it was a parts supplier in Michigan who has a $100,000 loan with an interest rate risk associated with that, and they want to engage in perhaps a swap to fix that risk. So now they go to a bank with a 7\\1/2\\ percent capital requirement. Okay. So the real risk for them may be just $1,000, the actual full risk. So the market value is $1,000. The capital for that is about $75, 7\\1/2\\ percent of that. But we are not even talking about the $75 on this $100,000 swap. We are talking about the difference between that being borrowed money and that being the financial firm's own money.    So what is the difference there? That is actually about $7\\1/2\\. So what we are really talking about on a $100,000 swap is an incremental cost to the bank or to the large financial firm of basically a ham sandwich downstairs. That is the amount of money we are actually talking about. That is the profound impact of the cost that we are worried about being passed on to the end-users.    Again, the end-user itself isn't posting any margin. It is not posting any capital. It doesn't have to keep those things. And those folks were appropriately exempted from the regulation.    So one thing I want to take a few moments to talk about is who are the financial firms. Obviously, we have the largest banks who are familiar with capital and margin requirements that have applied to them for decades, but we also have the largest financial services firms. We have the insurance companies, we have the hedge funds, mutual funds, the futures commission merchants, we have those folks. I would argue that actually that bucket is precisely the bucket that these rules are designed to target, and the reason is AIG, Long-Term Capital Management, MF Global, those are the firms that we actually do have to worry about. And for them, margin and capital rules, some of them may apply, and some of them are not very familiar with it, and I recognize that.    And then, of course, we have the real end-users, the farmers cooperatives, the manufacturers, they had nothing to do with this crisis, and no one agrees that they did. What is interesting is we are doing our best now, and with your Committee's great work, making sure that these rules don't apply to them.    The last point I want to make is something that my colleagues also referenced with respect to the cross-border issues. I share the concerns with both mutual recognition and making sure that our regulators work collaboratively around the globe.    With respect to whether or not we exempt, or our regulators cede jurisdiction to others, I would say be very careful. It was, in fact, the London trading desks of some of the largest firms that led to some of the large losses, so I would urge them to be careful.    Again, thank you for inviting me here today, and I look forward to any questions.</t>
   </si>
   <si>
@@ -91,9 +79,6 @@
     <t xml:space="preserve">    Mr. O'Malia. Ranking Member Scott, this is a great issue, and as Walt pointed out, it is a global market and, therefore, we need global rules. We have been working very hard to make sure to minimize the differences between the rule-sets, and to ensure that you can have comparable regulation. That is what was set out in the G20 objectives. That is what we believe is the outcome in many of these regulations, as you pointed out, with Singapore, the EU as well.    These rules are not going to be identical. You cannot read them word-for-word and come up with identical rules, but the outcomes are the same. And so we are pushing very hard, whether it is data, whether it is trader execution, how you comply on the firm's buy-side, sell-side, end-user, it does not matter. We are all working together to make sure you have comparable rules.    One recent frustration is, and I touched on this in my testimony, is the CFTC's own rules on cross-border have been inconsistent. On one hand, they put out the guidance 2 years ago that really kicked off some frustration globally about equivalence with the cross-border equivalence decisions coming--or that need to come as a result of the non-margin rules--or the margin for non-cleared rules, excuse me, they have a different position. The definition of U.S. person is different. So we would urge the Commission to: first, finalize its rules, and then be consistent with the Prudential Regulators' regulations that are already out. And then we probably ought to go back and re-evaluate the current guidance that they have issued.    Mr. David Scott of Georgia. Right. My time is up, Mr. Chairman. If we have another round, I would certainly like to come back and ask what impact this controversy is having on our end-users.    The Chairman. We should have time for another round.    I now recognize the gentleman from Texas, Mr. Conaway, the big Chairman, for 5 minutes.</t>
   </si>
   <si>
-    <t>Conaway</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conaway. Well, thank you, Chairman. And full and fair disclosure, Austin and I finished up the mark-up--last night, or early this morning--at about 2:45, so I am not necessarily hitting on all four cylinders.    Belt and suspenders is a phrase that CPAs use a lot, and I am a CPA, but as I look at this, net stable funding ratio, supplementary Basel 2.5, Basel III, capital surcharges, at what point does it get to be too much? Are we overlapping these kind of things? And so that is the question, that is more broader to look at and step back and see now that we have all these rules in place for the most part, what is it we have actually done to ourselves, and how has this actually stopped any kind of a meltdown, going forward.    And I would like to get in the weeds a little bit. Scott, in your testimony, you talked about the ability of a bank to use internal models to calculate their capital requirements. If that is eliminated, then it is estimated that they would have to come up with 2.4 times as much capital as their internal modeling would have described. Are internal models that bad? That seems like a pretty dramatic differential between the way the regulators would want and the way the banks have seen, because they are responsible to the shareholders at the end of the day as well. What causes that big difference?</t>
   </si>
   <si>
@@ -184,9 +169,6 @@
     <t>412286</t>
   </si>
   <si>
-    <t>Ann Kirkpatrick</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you. Mr. O'Malia, I want to follow up on your comment that one-size-doesn't-fit-all in terms of capitalization. Can you give me an example of what you mean by that?</t>
   </si>
   <si>
@@ -247,9 +229,6 @@
     <t>412673</t>
   </si>
   <si>
-    <t>Trent Kelly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kelly. Thank you, Mr. Chairman. And, Mr. O'Malia, in your testimony you say that we need to understand the cumulative effect of these regulatory changes on the economy before they are fully implemented, and I agree with you. However, I am assuming the proponents of the changes would argue that the potential adverse effects of the economy could be much greater if we don't expeditiously implement the changes. How do you respond to such claims?</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>400247</t>
   </si>
   <si>
-    <t>Frank D. Lucas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lucas. Thank you, Mr. Chairman.    And one of the great things about the Committee hearing process, as the Committee knows, and I am sure our witnesses have experienced, there are issues that are so important that they have to be discussed and discussed and discussed in order to burn it in.    So in that regard, Mr. Lukken, I would like to turn to you, and be specific about once again discussing in the many instances where clearinghouse members or banks that are subject to the Basel capital rules which require them to hold that capital against the guarantee they provide for their clients. As I have personally repeatedly said in many of these hearings, and in conversations even with Chair Yellen, we can all agree that banks have exposure in the event their clients are unable to fulfill their obligations, and should hold capital against that. We all agree on that, but I am concerned about my constituents in the energy and ag business, how are they going to find access to their risk management tools if the margin posted isn't even recognized under the Basel leverage ratios. Would you expand for just a bit on that because, after all, as has been discussed here earlier, if the banks don't want to participate in this, they don't have to, reducing competition and reducing the opportunities for my constituents in the real world. Would you expand on that?</t>
   </si>
   <si>
@@ -301,9 +277,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman. And thank you and all the witnesses.    Kind of a follow-up to my colleague, Mr. Kelly, and my colleague, Mr. Lucas', line of questioning. Mr. Lukken, now, if the banking regulators won't recognize the customer margin as reducing the clearing members' exposure, are the Basel standards actually discouraging, in your opinion, the collection of client margin, and thereby, as Mr. Lucas talked about, the effect on his constituents and my constituents, and all of our constituents, who want to use this process, are they discouraging clearing?</t>
   </si>
   <si>
@@ -356,9 +329,6 @@
   </si>
   <si>
     <t>412510</t>
-  </si>
-  <si>
-    <t>Doug LaMalfa</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaMalfa. Well, thank you, Mr. Chairman. And my constituents would rather that we talk about a tri-tip sandwich, given the ranches we have up there, or maybe move on from the sandwich.    Mr. O'Malia, we were talking earlier about the CFTC has yet again to put out the final rule on cross-border trades, and the implementations that are going to be required for that in approximately 4 months, is my understanding, which is a very short window of time for the final rule. And so important compliance decisions are also needed as well. So if the CFTC does not come to a decision in this timeline, and the discussions continue to drag on, what would the effects be on the uncleared swap marketplace?</t>
@@ -898,11 +868,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -924,11 +892,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -950,11 +916,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -976,11 +940,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1002,11 +964,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1028,11 +988,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1054,11 +1012,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1080,11 +1036,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1106,11 +1060,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1132,11 +1084,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1158,11 +1108,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1184,11 +1132,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1210,11 +1156,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>18</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1236,11 +1180,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
         <v>25</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1262,11 +1204,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1288,11 +1228,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>25</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1314,11 +1252,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>18</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1340,11 +1276,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1366,11 +1300,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1392,11 +1324,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1418,11 +1348,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>18</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1444,11 +1372,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1470,11 +1396,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>18</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1496,11 +1420,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1522,11 +1444,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>18</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1548,11 +1468,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1574,11 +1492,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>18</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1600,11 +1516,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1626,11 +1540,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>18</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1652,11 +1564,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1678,11 +1588,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>18</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1704,11 +1612,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1730,11 +1636,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>18</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1756,11 +1660,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1782,11 +1684,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>18</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1808,11 +1708,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1834,11 +1732,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>18</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1860,11 +1756,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1886,11 +1780,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>18</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1912,11 +1804,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1938,11 +1828,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>18</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1962,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1990,11 +1876,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>14</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2014,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2042,11 +1924,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>14</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2066,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
         <v>55</v>
-      </c>
-      <c r="G47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2094,11 +1972,9 @@
       <c r="F48" t="s">
         <v>11</v>
       </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2118,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
-      </c>
-      <c r="G49" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2146,11 +2020,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2170,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G51" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2198,11 +2068,9 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" t="s">
-        <v>14</v>
-      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2222,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2250,11 +2116,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>14</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2276,11 +2140,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2300,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2328,11 +2188,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2354,11 +2212,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>14</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2378,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2406,11 +2260,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>14</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2430,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61" t="s">
-        <v>56</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2456,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2484,11 +2332,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>14</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2508,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2536,11 +2380,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>14</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2560,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2588,11 +2428,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2612,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
         <v>77</v>
-      </c>
-      <c r="H68" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2638,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2666,11 +2500,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2690,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2718,11 +2548,9 @@
       <c r="F72" t="s">
         <v>11</v>
       </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2742,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>85</v>
-      </c>
-      <c r="G73" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2770,11 +2596,9 @@
       <c r="F74" t="s">
         <v>11</v>
       </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2794,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
         <v>85</v>
-      </c>
-      <c r="G75" t="s">
-        <v>86</v>
-      </c>
-      <c r="H75" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2820,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>94</v>
-      </c>
-      <c r="G76" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2848,11 +2668,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2872,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>94</v>
-      </c>
-      <c r="G78" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2900,11 +2716,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2924,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>94</v>
-      </c>
-      <c r="G80" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2952,11 +2764,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2976,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>94</v>
-      </c>
-      <c r="G82" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3004,11 +2812,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>18</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3028,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
         <v>95</v>
-      </c>
-      <c r="H84" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3056,11 +2860,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>18</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3080,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3108,11 +2908,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>14</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3132,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>94</v>
-      </c>
-      <c r="G88" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3160,11 +2956,9 @@
       <c r="F89" t="s">
         <v>11</v>
       </c>
-      <c r="G89" t="s">
-        <v>14</v>
-      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3184,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>94</v>
-      </c>
-      <c r="G90" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3212,11 +3004,9 @@
       <c r="F91" t="s">
         <v>11</v>
       </c>
-      <c r="G91" t="s">
-        <v>14</v>
-      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3236,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>94</v>
-      </c>
-      <c r="G92" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3262,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
-      </c>
-      <c r="G93" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3290,11 +3076,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>14</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3314,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>113</v>
-      </c>
-      <c r="G95" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3342,11 +3124,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>14</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3366,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>113</v>
-      </c>
-      <c r="G97" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3394,11 +3172,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>14</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3418,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G99" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3446,11 +3220,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>14</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3470,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
+        <v>104</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
         <v>113</v>
-      </c>
-      <c r="G101" t="s">
-        <v>114</v>
-      </c>
-      <c r="H101" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3496,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>113</v>
-      </c>
-      <c r="G102" t="s">
+        <v>104</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
         <v>114</v>
-      </c>
-      <c r="H102" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3524,11 +3292,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>14</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3548,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>113</v>
-      </c>
-      <c r="G104" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3576,11 +3340,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>14</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3600,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
-      </c>
-      <c r="G106" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3628,11 +3388,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>14</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3652,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>113</v>
-      </c>
-      <c r="G108" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3680,11 +3436,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>14</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3704,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>113</v>
-      </c>
-      <c r="G110" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3732,11 +3484,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>14</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3756,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>113</v>
-      </c>
-      <c r="G112" t="s">
-        <v>114</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3784,11 +3532,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>14</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3810,11 +3556,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>14</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3836,11 +3580,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>14</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3862,11 +3604,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>16</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3888,11 +3628,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>16</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3914,11 +3652,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>14</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3940,11 +3676,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>14</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3966,11 +3700,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>14</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3990,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>94</v>
-      </c>
-      <c r="G121" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4018,11 +3748,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>16</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4042,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>94</v>
-      </c>
-      <c r="G123" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4070,11 +3796,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>16</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4094,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>94</v>
-      </c>
-      <c r="G125" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4122,11 +3844,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4146,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>94</v>
-      </c>
-      <c r="G127" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4174,11 +3892,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4198,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>94</v>
-      </c>
-      <c r="G129" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4226,11 +3940,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4250,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>94</v>
-      </c>
-      <c r="G131" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4278,11 +3988,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4302,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>94</v>
-      </c>
-      <c r="G133" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4330,11 +4036,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4354,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>94</v>
-      </c>
-      <c r="G135" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4382,11 +4084,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4406,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>94</v>
-      </c>
-      <c r="G137" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4434,11 +4132,9 @@
       <c r="F138" t="s">
         <v>11</v>
       </c>
-      <c r="G138" t="s">
-        <v>12</v>
-      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4458,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>94</v>
-      </c>
-      <c r="G139" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4486,11 +4180,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4510,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>94</v>
-      </c>
-      <c r="G141" t="s">
-        <v>95</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4538,11 +4228,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20029.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20029.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,15 +55,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Lukken</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lukken. Mr. Chairman, Ranking Member Scott, and Members of the Subcommittee, thank you for this opportunity to testify on the impact of margin and bank capital on the cleared derivatives markets.    I am President and CEO of FIA, a trade association for the futures, options, and centrally cleared derivatives markets. Both margin and bank capital play an important role in protecting the safety and soundness of the financial system. Since the financial crisis, their roles have been heightened with the G20 leaders' commitment to both enhance bank capital, and require the clearing, and thus, margining of standardized OTC products through regulated clearinghouses.    While capital and margin are both tools in protecting the financial system, it is important to distinguish the two, as each serves a specific function in meeting this important goal.    Bank capital is the amount of funds that a banking institution holds in reserve to support its banking activities. Required by national banking regulators under international standards set by the Basel Committee on Bank Supervision, bank capital serves as a stable financial cushion to absorb unexpected losses by banks. Margin, on the other hand, aims to protect the safety and soundness of the futures and cleared derivatives markets, rather than specific institutions. Customers that utilize the futures or cleared derivatives markets to hedge their risks are required to clear such transaction through a clearinghouse, and in order to do so, must post margin with a clearing member. The clearing member, in turn, manages this collection of margin from its customers, and guarantees the customers' transactions with a clearinghouse. The customers' margin is simply a performance bond that ensures customers make good on their transactions, which offsets the clearing member's exposure to the clearinghouse.    Many of the largest clearing members are also affiliated with prudentially regulated banks, and thus, are required to hold sufficient capital to ensure their firm, and thus, the system, is protected. As large financial institutions, these banks are subject to both CFTC regulation for their future commission merchant clearing business, as well as bank capital regulations under the oversight of the Federal Reserve, the FDIC, and the OCC. These U.S. bank regulators, consistent with standards set by the Basel Committee, are now implementing a new type of capital provision known as the leverage ratio. Part of the goal of the leverage ratio is to set a simple, non-risk-based floor for capital, including measuring the exposures arising from futures options and other derivatives transactions. Unfortunately, the leverage ratio fails to properly recognize that customer margin posted to a bank-affiliated clearing member offsets the bank's actual exposure to the clearinghouse.    The very nature of customer margin is to reduce the exposure of losses to the clearing member and the clearinghouse. In recent years, the CFTC, under your oversight, has made significant improvements to enhance customer margin to ensure it is always the first line of protection to offset losses during a default. If left unfixed, the leverage ratio will result in an inaccurate measurement of the actual economic exposure of the bank, and assign unwarranted capital charges on its clearing business. This will lead to higher costs for end-users and hedgers in our markets. Given these new capital constraints, bank clearing members are already beginning to limit the amount and types of clients that they accept to clear. We also believe the leverage ratio will lead to further consolidation among clearing members, resulting in fewer players supporting the safety and soundness of the clearinghouse.    In the U.S., clearing members have decreased from 94 clearing firms 10 years ago, to only 55 today. While there are several factors contributing to this consolidation, capital has been recently cited by several clearing member banks who have now exited the clearing business.    Perhaps the most concerning consequence for this Committee surrounds the leverage ratio's impact on a clearinghouse's ability to move or port client positions from a defaulting clearing member to another healthy clearing member during a crisis. If porting cannot be achieved due to capital constraints, clearinghouses will be forced to liquidate in a fire sale client positions during volatile market conditions, adding unnecessary stress to an unstable marketplace. After all, the ability of clearinghouses to move customer positions during the failure of Lehman Brothers in 2008 is one of the fundamental reasons that policymakers in the G20 determined to expand clearing to OTC products.    In closing, I would encourage the U.S. regulatory community to work together through the Basel process in determining how our margin and bank capital regulations can work in context. Without a fix, recent efforts by the G20 to increase the use of clearing may be in jeopardy, and customers in the futures and cleared swaps markets may face higher costs and less access to these risk management markets.    Thank you very much, and I look forward to your questions.</t>
   </si>
   <si>
+    <t>O'Malia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Malia. Chairman Scott, Ranking Member Scott, and Members of the Subcommittee, thank you for the opportunity to testify here today.    I would like to thank the Committee for holding this timely hearing to discuss the ramifications of two major reforms; bank capital and liquidity rules, and the margin requirements for non-cleared trades. Both will have a massive and profound impact on the derivative end-users.    In my testimony, I would like to explain the findings ISDA has produced to determine the cost impact of the capital rules, and will emphasize the need for a comprehensive and cumulative impact assessment. I will also provide an update on the implementation of the margin rules, and the steps ISDA is taking to ensure these are implemented in a cost-effective manner.    Substantial progress has been made to ensure that the financial system is more robust. The implementation of Basel 2.5 and Basel III means banks now hold more and better quality capital than ever before. An additional capital surcharge is being implemented for systemically important banks, and a resolution framework is being put in place to wind down failed banks without taxpayer assistance. This is on top of the global derivatives market infrastructure reforms, including data reporting, trading, and clearing.    While many aspects of the new rules have been finalized, core aspects of the Basel reform agenda, such as the leverage ratio, net stable funding ratio, fundamental review of the trading book, are still evolving. As it stands, these reforms look to significantly increase costs for banks, and may negatively impact the liquidity of these markets and the ability of banks to lend and provide crucial hedging services to corporate pension funds and asset managers.    Recent ISDA analysis suggests that the compliance with just one of the rules, the NSFR, will require the banking industry to raise additional long-term funding. We are concerned that the cumulative impact of the different parts of the banking capital reform are still unknown, and it is our belief that regulators shoulder undertake a cumulative impact assessment, posthaste. Given the continuing concerns about economic growth and job creation, legislators, supervisors, and market participants need to understand the cumulative impacts of the regulatory changes before they are implemented.    When it comes to the health of the global economy, I think the old tailor's saying holds true: measure twice and cut once. At this moment, we are cutting our cloth in the dark. ISDA has been working hard to understand the impacts of the individual rules, and over the past year we have conducted eight impact studies. In each case, these studies have indicated sizeable increases in capital, on top of the increases that have already occurred as part of Basel III. We have also found the impact was not uniform across all banks, with certain businesses hit particularly hard. One good example is the leverage ratio and its effect on client clearing business. As it stands, the rule fails to recognize the risk-reducing impact of the initial margin posted by customers, and this has proved detrimental to the economics of client clearing, and is in direct conflict with the G20 objectives of central clearing.    Now let me turn to the final rules regarding the margin for non-cleared trades. As I noted earlier, these rules will have a significant cost impact on non-cleared products. According to the analysis published by the CFTC, the industry may have to set aside over $300 billion of initial margin to meet these requirements. ISDA has worked closely with the market at the global level to prepare for implementation, and I am proud to say that ISDA and its members have accomplished a great deal. First, we have established a standard initial margin model called ISDA SIMM, which all participants can use to calculate the initial margin requirements. This is nothing short of revolutionary for the over-the-counter market. Second, we have worked to draw up a revised margin documentation that is compliant with the collateral and segregation rules. Third, we have established a robust governance structure to allow for the necessary evolution of the model, and to provide regulators complete transparency into the model development process. Despite these efforts, challenges remain. The deadline for implementation of the initial margin requirements for the largest banks is September 2016. The variation margin, big bang, is set for March of 2017, which affects all market participants.    There are still a few important items that need to fall into place to ensure that the market can move forward confidently. First, regulators need to send a clear signal that the ISDA SIMM is fit for purpose, and banks can confidently begin to apply this model before the 2016 deadline. Second, regulators must finalize the cross-border rules, which will result in the recognition of comparable jurisdictions. To date, the CFTC cross-border margin rules have not been approved, and if it is not rectified as soon as possible, the hard work to unify the rules under the Basel Committee IOSCO at that level will be undermined. In addition, ISDA will not be able to complete the necessary documentation that will assist dealers in determining whether their clients fall within scope of the margin rules by the time the rules go final.    And I appreciate the Committee's interest in ensuring that the G20 reforms are implemented in a cost-effective manner, and this ensures that end-users have access to global capital markets and derivatives markets. You can be confident that ISDA will continue to work to develop the data on the capital rules to contribute to a safe but cost-effective capital structure, as well as facilitate the transition to a new margin regime that is fully transparent and effective.    I am happy to answer any of your questions. Thank you.</t>
   </si>
   <si>
+    <t>Deas</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Deas. Good morning, Chairman Scott, Ranking Member Scott, and Members of the Subcommittee.    I am Tom Deas, testifying on behalf of the U.S. Chamber's Center for Capital Markets Competitiveness and the Coalition for Derivatives End-Users. I am also Chairman of the National Association of Corporate Treasurers.    The Chamber and the Coalition for Derivative End-Users, along with NACT, represent hundreds of companies across the country that employ derivatives to manage risk in our day-to-day business activities.    First, let me sincerely thank, both the Chairman, the Ranking Member, and the Members of this Committee for doing so much to protect derivative end-users from the burdens of unnecessary regulation. When it comes to main street businesses, the Members of this Committee have worked together to get things done. Last year, you led the charge in enacting both the end-user margin bill and the centralized treasury unit bill, directly benefitting the end-user community. We sincerely appreciate these efforts.    Congress did this because they recognized that end-users do not engage in the kind of risky, speculative derivatives activity that became evident during the financial crisis. End-users comprise less than ten percent of the derivatives markets, and we use derivatives to hedge the risks in our day-to-day business activity. We are offsetting risks, not creating new ones.    We support the Dodd-Frank Act's goal of increasing transparency in, and reducing systemic risks of, the derivatives markets. However, at this point, almost 6 years after passage of the Act, there are still areas where the continuing uncertainty compels end-users to appeal for legislative and regulatory relief. End-users are also seeing the cumulative impacts of the elaborate web of new rules and regulations, including those placed on our counterparties; that is, rules that require our counterparties to meet certain tests regarding capital, liquidity, and margin, are leading to significant realized and potential impacts on end-users. Despite being exempted from the capital and margin requirements, end-users still face the distinct possibility that our hedging activities will become too costly because of the new and higher capital requirements, margin and liquidity requirements, imposed on our counterparties.    For example, under the net stable funding ratio, long-term funding costs will discourage dealer involvement in derivatives, thereby reducing available counterparties and liquidity for end-users. We understand the banking regulators have proposed their net stable funding ratio rule this week, and we are in the process of reviewing it and its impacts on end-users.    Another example is the supplemental leverage ratio, which does not permit the clearing member to receive credit for the segregated initial margin posted by its end-user customers. The failure of the SLR to recognize the risk-reducing effect of segregated client collateral will likely lead to fewer banks willing to provide clearing services for customers, and will likely increase costs to end-users generally.    Differences in the credit valuation adjustment risk capital charge between the United States and other jurisdictions, such as Europe, also create competitive disadvantages. Europe provides an exemption that avoids the CVA charge being factored onto the pricing, and passed on to end-users, however, in the United States no such exemption exists, leading to the potential for large pricing differences when trading with U.S. compared to EU banks.    Many end-users engage in derivatives with both non-bank, as well as bank swap dealers, and we are concerned about the impact on liquidity of certain restrictions on models for non-bank swap dealers, which would not permit the use of internal models for computing market risks, and counterparty credit charges for capital purposes. This approach requires non-bank swap dealers to hold significantly more regulatory capital, which ultimately will force them potentially to exit the business, leaving end-users with fewer choices for access to risk mitigation tools.    To summarize, end-users are concerned about the apparent disparity between an exemption from clearing and margin requirements on the one hand, and the pass-through costs resulting from new capital and liquidity rules imposed on their counterparties. We also fear that cross-border regulatory uncertainty and conflict could put American companies at an economic disadvantage. Although these capital and liquidity rules do not create affirmative requirements directly on end-users, they, nevertheless, create real impacts and costs. The imposition of unnecessary burdens on end-users restricts job growth, decreases investment, and undermines our competitiveness around the globe, leading to material cumulative impacts on corporate end-users and our economy.    Thank you again for your attention to the needs of end-user companies.</t>
   </si>
   <si>
+    <t>Gellasch</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gellasch. Chairman Scott, Ranking Member Scott, Chairman Conaway, and other Members of the Committee, thank you for inviting me here today.    The testimony I am going to give today represents my views, and not those of the trade association or others members.    And I agree with your remarks. I actually believe that we can have more resilient markets and still protect end-users. And I also want to start today by recognizing the obvious; that inadequate regulation of derivatives turned the mortgage crisis into a worldwide financial meltdown. And in response to that crisis, regulators around the world designed rules to make our markets more fair, more transparent, more stable, and less likely to cause the next financial crisis.    I think it is clear they have actually done that. But unlike some of my colleagues here today, I want to share with you that these important reforms are not actually having a profound negative impact on real end-users. And the elaborate web of rules, that my colleagues referenced a moment ago, don't actually apply to them, and in part because of your hard work, but in part because of smart choices also made by our regulators.    Today's topic focuses largely on margin and capital, and I think that is actually the most important part of the crisis. The largest firms, AIG and the banks, had hundreds of billions of dollars on their balance sheets, and yet they still were not able to weather the storm, in large part because they had inadequate margin from their counterparties, and they had inadequate capital to absorb the losses, so the taxpayers did.    And I want to explore for a moment exactly what margin and capital are. As Mr. Lukken said, margin is the first line of defense for a counterparty. It is an asset often extremely liquid in securities that are used to satisfy the obligation. And it has been a hallmark of our capital markets for decades around the world, and it is actually the only reason to promote liquidity in times of financial stress. Capital, by contrast, ensures that the firm has enough of its own, not borrowed, money to meet the foreseeable obligations; essentially, to stay solvent. If margin is the first line of defense for a counterparty in the time of a crisis, then capital and leverage limits are the last before the bailout.    Once the crisis hit, everyone realized that we needed more margin and capital in the system, and the G20 summits focused squarely on those issues. And that is actually what Dodd-Frank did as well. And now we are hearing from many of the largest banks and financial firms and their trade groups here, that the requirements on them will have, and I will again use their words, profound negative impacts, or impede the ability of end-users to manage their risks. And I am here to say I respectfully disagree, and the reason is, frankly, simple math. And let me use an example from real life that I am familiar with, and it is a real commercial end-user, it was a parts supplier in Michigan who has a $100,000 loan with an interest rate risk associated with that, and they want to engage in perhaps a swap to fix that risk. So now they go to a bank with a 7\\1/2\\ percent capital requirement. Okay. So the real risk for them may be just $1,000, the actual full risk. So the market value is $1,000. The capital for that is about $75, 7\\1/2\\ percent of that. But we are not even talking about the $75 on this $100,000 swap. We are talking about the difference between that being borrowed money and that being the financial firm's own money.    So what is the difference there? That is actually about $7\\1/2\\. So what we are really talking about on a $100,000 swap is an incremental cost to the bank or to the large financial firm of basically a ham sandwich downstairs. That is the amount of money we are actually talking about. That is the profound impact of the cost that we are worried about being passed on to the end-users.    Again, the end-user itself isn't posting any margin. It is not posting any capital. It doesn't have to keep those things. And those folks were appropriately exempted from the regulation.    So one thing I want to take a few moments to talk about is who are the financial firms. Obviously, we have the largest banks who are familiar with capital and margin requirements that have applied to them for decades, but we also have the largest financial services firms. We have the insurance companies, we have the hedge funds, mutual funds, the futures commission merchants, we have those folks. I would argue that actually that bucket is precisely the bucket that these rules are designed to target, and the reason is AIG, Long-Term Capital Management, MF Global, those are the firms that we actually do have to worry about. And for them, margin and capital rules, some of them may apply, and some of them are not very familiar with it, and I recognize that.    And then, of course, we have the real end-users, the farmers cooperatives, the manufacturers, they had nothing to do with this crisis, and no one agrees that they did. What is interesting is we are doing our best now, and with your Committee's great work, making sure that these rules don't apply to them.    The last point I want to make is something that my colleagues also referenced with respect to the cross-border issues. I share the concerns with both mutual recognition and making sure that our regulators work collaboratively around the globe.    With respect to whether or not we exempt, or our regulators cede jurisdiction to others, I would say be very careful. It was, in fact, the London trading desks of some of the largest firms that led to some of the large losses, so I would urge them to be careful.    Again, thank you for inviting me here today, and I look forward to any questions.</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t xml:space="preserve">    Mr. O'Malia. Ranking Member Scott, this is a great issue, and as Walt pointed out, it is a global market and, therefore, we need global rules. We have been working very hard to make sure to minimize the differences between the rule-sets, and to ensure that you can have comparable regulation. That is what was set out in the G20 objectives. That is what we believe is the outcome in many of these regulations, as you pointed out, with Singapore, the EU as well.    These rules are not going to be identical. You cannot read them word-for-word and come up with identical rules, but the outcomes are the same. And so we are pushing very hard, whether it is data, whether it is trader execution, how you comply on the firm's buy-side, sell-side, end-user, it does not matter. We are all working together to make sure you have comparable rules.    One recent frustration is, and I touched on this in my testimony, is the CFTC's own rules on cross-border have been inconsistent. On one hand, they put out the guidance 2 years ago that really kicked off some frustration globally about equivalence with the cross-border equivalence decisions coming--or that need to come as a result of the non-margin rules--or the margin for non-cleared rules, excuse me, they have a different position. The definition of U.S. person is different. So we would urge the Commission to: first, finalize its rules, and then be consistent with the Prudential Regulators' regulations that are already out. And then we probably ought to go back and re-evaluate the current guidance that they have issued.    Mr. David Scott of Georgia. Right. My time is up, Mr. Chairman. If we have another round, I would certainly like to come back and ask what impact this controversy is having on our end-users.    The Chairman. We should have time for another round.    I now recognize the gentleman from Texas, Mr. Conaway, the big Chairman, for 5 minutes.</t>
   </si>
   <si>
+    <t>Conaway</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conaway. Well, thank you, Chairman. And full and fair disclosure, Austin and I finished up the mark-up--last night, or early this morning--at about 2:45, so I am not necessarily hitting on all four cylinders.    Belt and suspenders is a phrase that CPAs use a lot, and I am a CPA, but as I look at this, net stable funding ratio, supplementary Basel 2.5, Basel III, capital surcharges, at what point does it get to be too much? Are we overlapping these kind of things? And so that is the question, that is more broader to look at and step back and see now that we have all these rules in place for the most part, what is it we have actually done to ourselves, and how has this actually stopped any kind of a meltdown, going forward.    And I would like to get in the weeds a little bit. Scott, in your testimony, you talked about the ability of a bank to use internal models to calculate their capital requirements. If that is eliminated, then it is estimated that they would have to come up with 2.4 times as much capital as their internal modeling would have described. Are internal models that bad? That seems like a pretty dramatic differential between the way the regulators would want and the way the banks have seen, because they are responsible to the shareholders at the end of the day as well. What causes that big difference?</t>
   </si>
   <si>
@@ -169,6 +187,12 @@
     <t>412286</t>
   </si>
   <si>
+    <t>Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Kirkpatrick. Thank you. Mr. O'Malia, I want to follow up on your comment that one-size-doesn't-fit-all in terms of capitalization. Can you give me an example of what you mean by that?</t>
   </si>
   <si>
@@ -229,6 +253,12 @@
     <t>412673</t>
   </si>
   <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kelly. Thank you, Mr. Chairman. And, Mr. O'Malia, in your testimony you say that we need to understand the cumulative effect of these regulatory changes on the economy before they are fully implemented, and I agree with you. However, I am assuming the proponents of the changes would argue that the potential adverse effects of the economy could be much greater if we don't expeditiously implement the changes. How do you respond to such claims?</t>
   </si>
   <si>
@@ -253,6 +283,12 @@
     <t>400247</t>
   </si>
   <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lucas. Thank you, Mr. Chairman.    And one of the great things about the Committee hearing process, as the Committee knows, and I am sure our witnesses have experienced, there are issues that are so important that they have to be discussed and discussed and discussed in order to burn it in.    So in that regard, Mr. Lukken, I would like to turn to you, and be specific about once again discussing in the many instances where clearinghouse members or banks that are subject to the Basel capital rules which require them to hold that capital against the guarantee they provide for their clients. As I have personally repeatedly said in many of these hearings, and in conversations even with Chair Yellen, we can all agree that banks have exposure in the event their clients are unable to fulfill their obligations, and should hold capital against that. We all agree on that, but I am concerned about my constituents in the energy and ag business, how are they going to find access to their risk management tools if the margin posted isn't even recognized under the Basel leverage ratios. Would you expand for just a bit on that because, after all, as has been discussed here earlier, if the banks don't want to participate in this, they don't have to, reducing competition and reducing the opportunities for my constituents in the real world. Would you expand on that?</t>
   </si>
   <si>
@@ -277,6 +313,12 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Mr. Chairman. And thank you and all the witnesses.    Kind of a follow-up to my colleague, Mr. Kelly, and my colleague, Mr. Lucas', line of questioning. Mr. Lukken, now, if the banking regulators won't recognize the customer margin as reducing the clearing members' exposure, are the Basel standards actually discouraging, in your opinion, the collection of client margin, and thereby, as Mr. Lucas talked about, the effect on his constituents and my constituents, and all of our constituents, who want to use this process, are they discouraging clearing?</t>
   </si>
   <si>
@@ -329,6 +371,12 @@
   </si>
   <si>
     <t>412510</t>
+  </si>
+  <si>
+    <t>LaMalfa</t>
+  </si>
+  <si>
+    <t>Doug</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. LaMalfa. Well, thank you, Mr. Chairman. And my constituents would rather that we talk about a tri-tip sandwich, given the ranches we have up there, or maybe move on from the sandwich.    Mr. O'Malia, we were talking earlier about the CFTC has yet again to put out the final rule on cross-border trades, and the implementations that are going to be required for that in approximately 4 months, is my understanding, which is a very short window of time for the final rule. And so important compliance decisions are also needed as well. So if the CFTC does not come to a decision in this timeline, and the discussions continue to drag on, what would the effects be on the uncleared swap marketplace?</t>
@@ -818,7 +866,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,7 +874,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,3389 +896,3911 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
       <c r="H43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G45" t="s">
+        <v>57</v>
+      </c>
       <c r="H45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>57</v>
+      </c>
       <c r="H47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G49" t="s">
+        <v>57</v>
+      </c>
       <c r="H49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G51" t="s">
+        <v>57</v>
+      </c>
       <c r="H51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>57</v>
+      </c>
       <c r="H53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G56" t="s">
+        <v>57</v>
+      </c>
       <c r="H56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G59" t="s">
+        <v>57</v>
+      </c>
       <c r="H59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I59" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>57</v>
+      </c>
       <c r="H61" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>70</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
       <c r="H62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>70</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G64" t="s">
+        <v>79</v>
+      </c>
       <c r="H64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s">
+        <v>79</v>
+      </c>
       <c r="H66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>70</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="G68" t="s">
+        <v>79</v>
+      </c>
       <c r="H68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>78</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G69" t="s">
+        <v>89</v>
+      </c>
       <c r="H69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>89</v>
+      </c>
       <c r="H71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>78</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G73" t="s">
+        <v>89</v>
+      </c>
       <c r="H73" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>78</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
+        <v>89</v>
+      </c>
       <c r="H75" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
       <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
       <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
       <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
       <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
       <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s">
+        <v>99</v>
+      </c>
       <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G88" t="s">
+        <v>99</v>
+      </c>
       <c r="H88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G90" t="s">
+        <v>99</v>
+      </c>
       <c r="H90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G92" t="s">
+        <v>99</v>
+      </c>
       <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I92" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>104</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G93" t="s">
+        <v>119</v>
+      </c>
       <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>104</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G95" t="s">
+        <v>119</v>
+      </c>
       <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>104</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G97" t="s">
+        <v>119</v>
+      </c>
       <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>104</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G99" t="s">
+        <v>119</v>
+      </c>
       <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>104</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G101" t="s">
+        <v>119</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>104</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G102" t="s">
+        <v>119</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>104</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G104" t="s">
+        <v>119</v>
+      </c>
       <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>104</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G106" t="s">
+        <v>119</v>
+      </c>
       <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>104</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G108" t="s">
+        <v>119</v>
+      </c>
       <c r="H108" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>104</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G110" t="s">
+        <v>119</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>104</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>118</v>
+      </c>
+      <c r="G112" t="s">
+        <v>119</v>
+      </c>
       <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>120</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>86</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G121" t="s">
+        <v>99</v>
+      </c>
       <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>86</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G123" t="s">
+        <v>99</v>
+      </c>
       <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>86</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G125" t="s">
+        <v>99</v>
+      </c>
       <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>86</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G127" t="s">
+        <v>99</v>
+      </c>
       <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>86</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G129" t="s">
+        <v>99</v>
+      </c>
       <c r="H129" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I129" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>86</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G131" t="s">
+        <v>99</v>
+      </c>
       <c r="H131" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>86</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G133" t="s">
+        <v>99</v>
+      </c>
       <c r="H133" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>86</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G135" t="s">
+        <v>99</v>
+      </c>
       <c r="H135" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>86</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G137" t="s">
+        <v>99</v>
+      </c>
       <c r="H137" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>86</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G139" t="s">
+        <v>99</v>
+      </c>
       <c r="H139" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>86</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G141" t="s">
+        <v>99</v>
+      </c>
       <c r="H141" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I141" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>151</v>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20029.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20029.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="170">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -185,6 +188,9 @@
   </si>
   <si>
     <t>412286</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Kirkpatrick</t>
@@ -866,7 +872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,7 +880,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,3908 +905,4148 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2" t="s"/>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>27</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J53" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" t="s">
-        <v>13</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" t="s">
-        <v>15</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G68" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>82</v>
+      </c>
+      <c r="J68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G75" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="H75" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I76" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" t="s">
-        <v>13</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G80" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" t="s">
-        <v>13</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I82" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" t="s">
-        <v>19</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I86" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G88" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H88" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" t="s">
-        <v>15</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H90" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I90" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" t="s">
-        <v>15</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I92" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G93" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H93" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G95" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" t="s">
-        <v>15</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G97" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G99" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" t="s">
-        <v>15</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G101" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G102" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" t="s">
-        <v>15</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>16</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G104" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" t="s">
-        <v>15</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G106" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" t="s">
-        <v>15</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>16</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G108" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" t="s">
-        <v>15</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G110" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H110" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" t="s">
-        <v>15</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>16</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G112" t="s">
-        <v>119</v>
+        <v>58</v>
       </c>
       <c r="H112" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>122</v>
+      </c>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" t="s">
-        <v>15</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>16</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" t="s">
-        <v>15</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>16</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" t="s">
-        <v>15</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>16</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" t="s">
-        <v>17</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" t="s">
-        <v>17</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" t="s">
-        <v>15</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" t="s">
-        <v>15</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>16</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" t="s">
-        <v>15</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>16</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G121" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H121" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" t="s">
-        <v>17</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G123" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H123" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" t="s">
-        <v>17</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G125" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H125" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I125" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" t="s">
-        <v>17</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G127" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H127" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G129" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H129" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I129" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J129" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" t="s">
-        <v>17</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G131" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H131" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G133" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H133" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" t="s">
-        <v>13</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G135" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H135" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" t="s">
-        <v>13</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G137" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H137" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I137" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>12</v>
-      </c>
-      <c r="G138" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G139" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H139" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
-      </c>
-      <c r="G140" t="s">
-        <v>13</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G141" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="H141" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>102</v>
+      </c>
+      <c r="J141" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>167</v>
+        <v>13</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
